--- a/REGULAR/NATANAUAN, GILBERTO.xlsx
+++ b/REGULAR/NATANAUAN, GILBERTO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8B1B4A-E72B-4F89-8D21-62D059526A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
     <t>PERIOD</t>
   </si>
@@ -369,11 +368,17 @@
   <si>
     <t>4/25,26,27,28,29/2023</t>
   </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>6/22-26/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1072,25 +1077,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K418" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K418" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1397,34 +1402,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K418"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A338" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B343" sqref="B343"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3885" topLeftCell="A341" activePane="bottomLeft"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection pane="bottomLeft" activeCell="K345" sqref="K345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1450,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1465,7 +1470,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1487,7 +1492,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1495,7 +1500,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1508,7 +1513,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1525,7 +1530,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1569,7 +1574,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>277.05399999999997</v>
+        <v>274.55399999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1579,12 +1584,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>363.95799999999997</v>
+        <v>366.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20" t="s">
         <v>44</v>
@@ -1606,7 +1611,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="48" t="s">
         <v>45</v>
@@ -1624,7 +1629,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>46</v>
       </c>
@@ -1642,7 +1647,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35977</v>
       </c>
@@ -1662,7 +1667,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36008</v>
       </c>
@@ -1682,7 +1687,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36039</v>
       </c>
@@ -1708,7 +1713,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36069</v>
       </c>
@@ -1728,7 +1733,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36100</v>
       </c>
@@ -1748,7 +1753,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36130</v>
       </c>
@@ -1772,7 +1777,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>50</v>
       </c>
@@ -1790,7 +1795,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36161</v>
       </c>
@@ -1816,7 +1821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>51</v>
@@ -1835,7 +1840,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>52</v>
@@ -1854,7 +1859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36192</v>
       </c>
@@ -1874,7 +1879,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36220</v>
       </c>
@@ -1894,7 +1899,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36251</v>
       </c>
@@ -1914,7 +1919,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36281</v>
       </c>
@@ -1934,7 +1939,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36312</v>
       </c>
@@ -1962,7 +1967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36342</v>
       </c>
@@ -1982,7 +1987,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36373</v>
       </c>
@@ -2002,7 +2007,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36404</v>
       </c>
@@ -2022,7 +2027,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36434</v>
       </c>
@@ -2042,7 +2047,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36465</v>
       </c>
@@ -2062,7 +2067,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36495</v>
       </c>
@@ -2082,7 +2087,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>58</v>
       </c>
@@ -2100,7 +2105,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36526</v>
       </c>
@@ -2126,7 +2131,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36557</v>
       </c>
@@ -2146,7 +2151,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36586</v>
       </c>
@@ -2166,7 +2171,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36617</v>
       </c>
@@ -2186,7 +2191,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36647</v>
       </c>
@@ -2206,7 +2211,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36678</v>
       </c>
@@ -2226,7 +2231,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36708</v>
       </c>
@@ -2246,7 +2251,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36739</v>
       </c>
@@ -2266,7 +2271,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36770</v>
       </c>
@@ -2286,7 +2291,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36800</v>
       </c>
@@ -2306,7 +2311,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36831</v>
       </c>
@@ -2326,7 +2331,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36861</v>
       </c>
@@ -2350,7 +2355,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>63</v>
       </c>
@@ -2368,7 +2373,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36892</v>
       </c>
@@ -2388,7 +2393,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36923</v>
       </c>
@@ -2408,7 +2413,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36951</v>
       </c>
@@ -2428,7 +2433,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36982</v>
       </c>
@@ -2448,7 +2453,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37012</v>
       </c>
@@ -2468,7 +2473,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37043</v>
       </c>
@@ -2488,7 +2493,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37073</v>
       </c>
@@ -2508,7 +2513,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37104</v>
       </c>
@@ -2528,7 +2533,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37135</v>
       </c>
@@ -2548,7 +2553,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37165</v>
       </c>
@@ -2568,7 +2573,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>37196</v>
       </c>
@@ -2588,7 +2593,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37226</v>
       </c>
@@ -2612,7 +2617,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
         <v>64</v>
       </c>
@@ -2630,7 +2635,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37257</v>
       </c>
@@ -2650,7 +2655,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37288</v>
       </c>
@@ -2670,7 +2675,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37316</v>
       </c>
@@ -2690,7 +2695,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37347</v>
       </c>
@@ -2710,7 +2715,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37377</v>
       </c>
@@ -2730,7 +2735,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37408</v>
       </c>
@@ -2750,7 +2755,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37438</v>
       </c>
@@ -2770,7 +2775,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37469</v>
       </c>
@@ -2790,7 +2795,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37500</v>
       </c>
@@ -2810,7 +2815,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37530</v>
       </c>
@@ -2830,7 +2835,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37561</v>
       </c>
@@ -2850,7 +2855,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37591</v>
       </c>
@@ -2874,7 +2879,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
         <v>65</v>
       </c>
@@ -2892,7 +2897,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37622</v>
       </c>
@@ -2912,7 +2917,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37653</v>
       </c>
@@ -2932,7 +2937,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37681</v>
       </c>
@@ -2952,7 +2957,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37712</v>
       </c>
@@ -2972,7 +2977,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37742</v>
       </c>
@@ -2992,7 +2997,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37773</v>
       </c>
@@ -3012,7 +3017,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37803</v>
       </c>
@@ -3032,7 +3037,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37834</v>
       </c>
@@ -3052,7 +3057,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37865</v>
       </c>
@@ -3072,7 +3077,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37895</v>
       </c>
@@ -3092,7 +3097,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37926</v>
       </c>
@@ -3112,7 +3117,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37956</v>
       </c>
@@ -3136,7 +3141,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="49" t="s">
         <v>66</v>
       </c>
@@ -3154,7 +3159,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37987</v>
       </c>
@@ -3174,7 +3179,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38018</v>
       </c>
@@ -3194,7 +3199,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>38047</v>
       </c>
@@ -3214,7 +3219,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>38078</v>
       </c>
@@ -3234,7 +3239,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38108</v>
       </c>
@@ -3260,7 +3265,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>38139</v>
       </c>
@@ -3280,7 +3285,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>38169</v>
       </c>
@@ -3300,7 +3305,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38200</v>
       </c>
@@ -3320,7 +3325,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>38231</v>
       </c>
@@ -3340,7 +3345,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38261</v>
       </c>
@@ -3360,7 +3365,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38292</v>
       </c>
@@ -3380,7 +3385,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38322</v>
       </c>
@@ -3404,7 +3409,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="49" t="s">
         <v>67</v>
       </c>
@@ -3422,7 +3427,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>38353</v>
       </c>
@@ -3442,7 +3447,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38384</v>
       </c>
@@ -3462,7 +3467,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38412</v>
       </c>
@@ -3488,7 +3493,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38443</v>
       </c>
@@ -3508,7 +3513,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38473</v>
       </c>
@@ -3528,7 +3533,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38504</v>
       </c>
@@ -3548,7 +3553,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38534</v>
       </c>
@@ -3568,7 +3573,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38565</v>
       </c>
@@ -3588,7 +3593,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38596</v>
       </c>
@@ -3608,7 +3613,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>38626</v>
       </c>
@@ -3628,7 +3633,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38657</v>
       </c>
@@ -3648,7 +3653,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38687</v>
       </c>
@@ -3668,7 +3673,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="49" t="s">
         <v>68</v>
       </c>
@@ -3686,7 +3691,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38718</v>
       </c>
@@ -3706,7 +3711,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38749</v>
       </c>
@@ -3726,7 +3731,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38777</v>
       </c>
@@ -3746,7 +3751,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38808</v>
       </c>
@@ -3766,7 +3771,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38838</v>
       </c>
@@ -3786,7 +3791,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38869</v>
       </c>
@@ -3810,7 +3815,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38899</v>
       </c>
@@ -3834,7 +3839,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38930</v>
       </c>
@@ -3858,7 +3863,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38961</v>
       </c>
@@ -3878,7 +3883,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>38991</v>
       </c>
@@ -3898,7 +3903,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>39022</v>
       </c>
@@ -3918,7 +3923,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>39052</v>
       </c>
@@ -3942,7 +3947,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="49" t="s">
         <v>69</v>
       </c>
@@ -3960,7 +3965,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>39083</v>
       </c>
@@ -3980,7 +3985,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>39114</v>
       </c>
@@ -4000,7 +4005,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>39142</v>
       </c>
@@ -4020,7 +4025,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>39173</v>
       </c>
@@ -4040,7 +4045,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>39203</v>
       </c>
@@ -4060,7 +4065,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>39234</v>
       </c>
@@ -4080,7 +4085,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>39264</v>
       </c>
@@ -4100,7 +4105,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>39295</v>
       </c>
@@ -4120,7 +4125,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>39326</v>
       </c>
@@ -4140,7 +4145,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>39356</v>
       </c>
@@ -4160,7 +4165,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>39387</v>
       </c>
@@ -4180,7 +4185,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>39417</v>
       </c>
@@ -4204,7 +4209,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="49" t="s">
         <v>70</v>
       </c>
@@ -4222,7 +4227,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39448</v>
       </c>
@@ -4242,7 +4247,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39479</v>
       </c>
@@ -4262,7 +4267,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39508</v>
       </c>
@@ -4282,7 +4287,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39539</v>
       </c>
@@ -4302,7 +4307,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39569</v>
       </c>
@@ -4322,7 +4327,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39600</v>
       </c>
@@ -4342,7 +4347,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>39630</v>
       </c>
@@ -4362,7 +4367,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39661</v>
       </c>
@@ -4382,7 +4387,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39692</v>
       </c>
@@ -4402,7 +4407,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39722</v>
       </c>
@@ -4422,7 +4427,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39753</v>
       </c>
@@ -4442,7 +4447,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39783</v>
       </c>
@@ -4466,7 +4471,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="49" t="s">
         <v>71</v>
       </c>
@@ -4484,7 +4489,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39814</v>
       </c>
@@ -4504,7 +4509,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39845</v>
       </c>
@@ -4524,7 +4529,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39873</v>
       </c>
@@ -4544,7 +4549,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39904</v>
       </c>
@@ -4564,7 +4569,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39934</v>
       </c>
@@ -4584,7 +4589,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39965</v>
       </c>
@@ -4604,7 +4609,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39995</v>
       </c>
@@ -4624,7 +4629,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>40026</v>
       </c>
@@ -4644,7 +4649,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40057</v>
       </c>
@@ -4664,7 +4669,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40087</v>
       </c>
@@ -4684,7 +4689,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>40118</v>
       </c>
@@ -4704,7 +4709,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40148</v>
       </c>
@@ -4728,7 +4733,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="49" t="s">
         <v>72</v>
       </c>
@@ -4746,7 +4751,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>40179</v>
       </c>
@@ -4766,7 +4771,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40210</v>
       </c>
@@ -4786,7 +4791,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>40238</v>
       </c>
@@ -4806,7 +4811,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>40269</v>
       </c>
@@ -4826,7 +4831,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>40299</v>
       </c>
@@ -4846,7 +4851,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>40330</v>
       </c>
@@ -4866,7 +4871,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>40360</v>
       </c>
@@ -4886,7 +4891,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>40391</v>
       </c>
@@ -4906,7 +4911,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>40422</v>
       </c>
@@ -4926,7 +4931,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>40452</v>
       </c>
@@ -4946,7 +4951,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>40483</v>
       </c>
@@ -4966,7 +4971,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>40513</v>
       </c>
@@ -4990,7 +4995,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="49" t="s">
         <v>62</v>
       </c>
@@ -5008,7 +5013,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40544</v>
       </c>
@@ -5028,7 +5033,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>40575</v>
       </c>
@@ -5048,7 +5053,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40603</v>
       </c>
@@ -5068,7 +5073,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>40634</v>
       </c>
@@ -5088,7 +5093,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40664</v>
       </c>
@@ -5108,7 +5113,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>40695</v>
       </c>
@@ -5128,7 +5133,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40725</v>
       </c>
@@ -5148,7 +5153,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40756</v>
       </c>
@@ -5168,7 +5173,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>40787</v>
       </c>
@@ -5188,7 +5193,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40817</v>
       </c>
@@ -5208,7 +5213,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>40848</v>
       </c>
@@ -5228,7 +5233,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>40878</v>
       </c>
@@ -5252,7 +5257,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>90</v>
@@ -5269,7 +5274,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="49" t="s">
         <v>73</v>
       </c>
@@ -5287,7 +5292,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40909</v>
       </c>
@@ -5307,7 +5312,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40940</v>
       </c>
@@ -5327,7 +5332,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>40969</v>
       </c>
@@ -5347,7 +5352,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>41000</v>
       </c>
@@ -5367,7 +5372,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>41030</v>
       </c>
@@ -5391,7 +5396,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>41061</v>
       </c>
@@ -5411,7 +5416,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>41091</v>
       </c>
@@ -5431,7 +5436,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>41122</v>
       </c>
@@ -5451,7 +5456,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>41153</v>
       </c>
@@ -5471,7 +5476,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>41183</v>
       </c>
@@ -5491,7 +5496,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>41214</v>
       </c>
@@ -5515,7 +5520,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>41244</v>
       </c>
@@ -5537,7 +5542,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>53</v>
@@ -5554,7 +5559,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="49" t="s">
         <v>74</v>
       </c>
@@ -5572,7 +5577,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>41275</v>
       </c>
@@ -5592,7 +5597,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>41306</v>
       </c>
@@ -5612,7 +5617,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>41334</v>
       </c>
@@ -5632,7 +5637,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>41365</v>
       </c>
@@ -5652,7 +5657,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>41395</v>
       </c>
@@ -5672,7 +5677,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41426</v>
       </c>
@@ -5692,7 +5697,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>41456</v>
       </c>
@@ -5712,7 +5717,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41487</v>
       </c>
@@ -5732,7 +5737,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>41518</v>
       </c>
@@ -5752,7 +5757,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>41548</v>
       </c>
@@ -5772,7 +5777,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>41579</v>
       </c>
@@ -5792,7 +5797,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>41609</v>
       </c>
@@ -5816,7 +5821,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="49" t="s">
         <v>75</v>
       </c>
@@ -5834,7 +5839,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>41640</v>
       </c>
@@ -5854,7 +5859,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>41671</v>
       </c>
@@ -5874,7 +5879,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>41699</v>
       </c>
@@ -5894,7 +5899,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>41730</v>
       </c>
@@ -5914,7 +5919,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41760</v>
       </c>
@@ -5938,7 +5943,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41791</v>
       </c>
@@ -5958,7 +5963,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41821</v>
       </c>
@@ -5978,7 +5983,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41852</v>
       </c>
@@ -6004,7 +6009,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>41883</v>
       </c>
@@ -6030,7 +6035,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>41913</v>
       </c>
@@ -6051,7 +6056,7 @@
         <v>41915</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>95</v>
@@ -6070,7 +6075,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>95</v>
@@ -6089,7 +6094,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>91</v>
@@ -6111,7 +6116,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>41944</v>
       </c>
@@ -6131,7 +6136,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>41974</v>
       </c>
@@ -6155,7 +6160,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="49" t="s">
         <v>76</v>
       </c>
@@ -6173,7 +6178,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>42005</v>
       </c>
@@ -6193,7 +6198,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>42036</v>
       </c>
@@ -6213,7 +6218,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>42064</v>
       </c>
@@ -6233,7 +6238,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>42095</v>
       </c>
@@ -6253,7 +6258,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>42125</v>
       </c>
@@ -6273,7 +6278,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>42156</v>
       </c>
@@ -6293,7 +6298,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>42186</v>
       </c>
@@ -6313,7 +6318,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>42217</v>
       </c>
@@ -6333,7 +6338,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>42248</v>
       </c>
@@ -6353,7 +6358,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>42278</v>
       </c>
@@ -6373,7 +6378,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>42309</v>
       </c>
@@ -6393,7 +6398,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>42339</v>
       </c>
@@ -6417,7 +6422,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="49" t="s">
         <v>77</v>
       </c>
@@ -6435,7 +6440,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>42370</v>
       </c>
@@ -6455,7 +6460,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>42401</v>
       </c>
@@ -6475,7 +6480,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>42430</v>
       </c>
@@ -6495,7 +6500,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>42461</v>
       </c>
@@ -6515,7 +6520,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>42491</v>
       </c>
@@ -6535,7 +6540,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>42522</v>
       </c>
@@ -6555,7 +6560,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42552</v>
       </c>
@@ -6575,7 +6580,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>42583</v>
       </c>
@@ -6595,7 +6600,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>42614</v>
       </c>
@@ -6615,7 +6620,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42644</v>
       </c>
@@ -6635,7 +6640,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>42675</v>
       </c>
@@ -6655,7 +6660,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42705</v>
       </c>
@@ -6679,7 +6684,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="49" t="s">
         <v>78</v>
       </c>
@@ -6697,7 +6702,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42736</v>
       </c>
@@ -6717,7 +6722,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>42767</v>
       </c>
@@ -6737,7 +6742,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42795</v>
       </c>
@@ -6757,7 +6762,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42826</v>
       </c>
@@ -6777,7 +6782,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42856</v>
       </c>
@@ -6797,7 +6802,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42887</v>
       </c>
@@ -6817,7 +6822,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42917</v>
       </c>
@@ -6837,7 +6842,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>42948</v>
       </c>
@@ -6857,7 +6862,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42979</v>
       </c>
@@ -6877,7 +6882,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>43009</v>
       </c>
@@ -6897,7 +6902,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>43040</v>
       </c>
@@ -6917,7 +6922,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>43070</v>
       </c>
@@ -6941,7 +6946,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="49" t="s">
         <v>79</v>
       </c>
@@ -6959,7 +6964,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>43101</v>
       </c>
@@ -6979,7 +6984,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>43132</v>
       </c>
@@ -6999,7 +7004,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>43160</v>
       </c>
@@ -7019,7 +7024,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>43191</v>
       </c>
@@ -7039,7 +7044,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>43221</v>
       </c>
@@ -7059,7 +7064,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>43252</v>
       </c>
@@ -7079,7 +7084,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>43282</v>
       </c>
@@ -7099,7 +7104,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>43313</v>
       </c>
@@ -7119,7 +7124,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>43344</v>
       </c>
@@ -7139,7 +7144,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>43374</v>
       </c>
@@ -7159,7 +7164,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>43405</v>
       </c>
@@ -7179,7 +7184,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>43435</v>
       </c>
@@ -7203,7 +7208,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="49" t="s">
         <v>80</v>
       </c>
@@ -7221,7 +7226,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>43466</v>
       </c>
@@ -7241,7 +7246,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>43497</v>
       </c>
@@ -7261,7 +7266,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>43525</v>
       </c>
@@ -7281,7 +7286,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>43556</v>
       </c>
@@ -7301,7 +7306,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>43586</v>
       </c>
@@ -7321,7 +7326,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>43617</v>
       </c>
@@ -7341,7 +7346,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>43647</v>
       </c>
@@ -7361,7 +7366,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43678</v>
       </c>
@@ -7381,7 +7386,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>43709</v>
       </c>
@@ -7401,7 +7406,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>43739</v>
       </c>
@@ -7421,7 +7426,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43770</v>
       </c>
@@ -7441,7 +7446,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43800</v>
       </c>
@@ -7465,7 +7470,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="49" t="s">
         <v>81</v>
       </c>
@@ -7483,7 +7488,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>43831</v>
       </c>
@@ -7503,7 +7508,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>43862</v>
       </c>
@@ -7523,7 +7528,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>43891</v>
       </c>
@@ -7543,7 +7548,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>43922</v>
       </c>
@@ -7563,7 +7568,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43952</v>
       </c>
@@ -7583,7 +7588,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43983</v>
       </c>
@@ -7603,7 +7608,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>44013</v>
       </c>
@@ -7623,7 +7628,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>44044</v>
       </c>
@@ -7643,7 +7648,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>44075</v>
       </c>
@@ -7663,7 +7668,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>44105</v>
       </c>
@@ -7683,7 +7688,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>44136</v>
       </c>
@@ -7703,7 +7708,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>44166</v>
       </c>
@@ -7727,7 +7732,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="49" t="s">
         <v>82</v>
       </c>
@@ -7745,7 +7750,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>44197</v>
       </c>
@@ -7765,7 +7770,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>44228</v>
       </c>
@@ -7785,7 +7790,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>44256</v>
       </c>
@@ -7805,7 +7810,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>44287</v>
       </c>
@@ -7825,7 +7830,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>44317</v>
       </c>
@@ -7845,7 +7850,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>44348</v>
       </c>
@@ -7865,7 +7870,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>44378</v>
       </c>
@@ -7885,7 +7890,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>44409</v>
       </c>
@@ -7905,7 +7910,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>44440</v>
       </c>
@@ -7925,7 +7930,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>44470</v>
       </c>
@@ -7945,7 +7950,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>44501</v>
       </c>
@@ -7965,7 +7970,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>44531</v>
       </c>
@@ -7989,7 +7994,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="49" t="s">
         <v>83</v>
       </c>
@@ -8007,7 +8012,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44562</v>
       </c>
@@ -8027,7 +8032,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>44593</v>
       </c>
@@ -8047,7 +8052,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>44621</v>
       </c>
@@ -8067,7 +8072,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>44652</v>
       </c>
@@ -8087,7 +8092,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>44682</v>
       </c>
@@ -8107,7 +8112,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>44713</v>
       </c>
@@ -8127,7 +8132,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>44743</v>
       </c>
@@ -8147,7 +8152,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>44774</v>
       </c>
@@ -8167,7 +8172,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>44805</v>
       </c>
@@ -8187,7 +8192,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>44835</v>
       </c>
@@ -8207,7 +8212,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>44866</v>
       </c>
@@ -8227,7 +8232,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44896</v>
       </c>
@@ -8247,7 +8252,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="49" t="s">
         <v>102</v>
       </c>
@@ -8265,7 +8270,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44927</v>
       </c>
@@ -8285,7 +8290,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44958</v>
       </c>
@@ -8305,7 +8310,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44986</v>
       </c>
@@ -8325,22 +8330,24 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>45017</v>
       </c>
       <c r="B342" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C342" s="13"/>
+      <c r="C342" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D342" s="39">
         <v>5</v>
       </c>
       <c r="E342" s="9"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G342" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
@@ -8349,31 +8356,37 @@
         <v>104</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>45047</v>
       </c>
       <c r="B343" s="20"/>
-      <c r="C343" s="13"/>
+      <c r="C343" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D343" s="39"/>
       <c r="E343" s="9"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G343" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H343" s="39"/>
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>45078</v>
       </c>
-      <c r="B344" s="20"/>
+      <c r="B344" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="C344" s="13"/>
-      <c r="D344" s="39"/>
+      <c r="D344" s="39">
+        <v>5</v>
+      </c>
       <c r="E344" s="9"/>
       <c r="F344" s="20"/>
       <c r="G344" s="42" t="str">
@@ -8382,10 +8395,14 @@
       </c>
       <c r="H344" s="39"/>
       <c r="I344" s="9"/>
-      <c r="J344" s="11"/>
-      <c r="K344" s="20"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J344" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K344" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>45108</v>
       </c>
@@ -8403,7 +8420,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>45139</v>
       </c>
@@ -8421,7 +8438,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>45170</v>
       </c>
@@ -8439,7 +8456,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>45200</v>
       </c>
@@ -8457,7 +8474,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>45231</v>
       </c>
@@ -8475,7 +8492,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>45261</v>
       </c>
@@ -8493,7 +8510,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>45292</v>
       </c>
@@ -8511,7 +8528,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>45323</v>
       </c>
@@ -8529,7 +8546,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>45352</v>
       </c>
@@ -8547,7 +8564,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>45383</v>
       </c>
@@ -8565,7 +8582,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>45413</v>
       </c>
@@ -8583,7 +8600,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -8599,7 +8616,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -8615,7 +8632,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -8631,7 +8648,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -8647,7 +8664,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -8663,7 +8680,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -8679,7 +8696,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -8695,7 +8712,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -8711,7 +8728,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -8727,7 +8744,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -8743,7 +8760,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -8759,7 +8776,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -8775,7 +8792,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -8791,7 +8808,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -8807,7 +8824,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -8823,7 +8840,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -8839,7 +8856,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -8855,7 +8872,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -8871,7 +8888,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -8887,7 +8904,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -8903,7 +8920,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -8919,7 +8936,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -8935,7 +8952,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -8951,7 +8968,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -8967,7 +8984,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -8983,7 +9000,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -8999,7 +9016,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -9015,7 +9032,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -9031,7 +9048,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -9047,7 +9064,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -9063,7 +9080,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -9079,7 +9096,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -9095,7 +9112,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -9111,7 +9128,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -9127,7 +9144,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -9143,7 +9160,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -9159,7 +9176,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -9175,7 +9192,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -9191,7 +9208,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -9207,7 +9224,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -9223,7 +9240,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -9239,7 +9256,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -9255,7 +9272,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -9271,7 +9288,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -9287,7 +9304,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -9303,7 +9320,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -9319,7 +9336,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -9335,7 +9352,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -9351,7 +9368,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -9367,7 +9384,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -9383,7 +9400,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -9399,7 +9416,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -9415,7 +9432,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -9431,7 +9448,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -9447,7 +9464,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -9463,7 +9480,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -9479,7 +9496,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -9495,7 +9512,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -9511,7 +9528,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -9527,7 +9544,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -9543,7 +9560,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -9559,7 +9576,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -9575,7 +9592,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="41"/>
       <c r="B418" s="15"/>
       <c r="C418" s="42"/>
@@ -9606,10 +9623,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9632,28 +9649,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -9666,7 +9683,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9695,7 +9712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>35.457999999999998</v>
       </c>
@@ -9725,17 +9742,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9756,7 +9773,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9783,7 +9800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9809,7 +9826,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9835,7 +9852,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9861,7 +9878,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9887,7 +9904,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9913,7 +9930,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9939,7 +9956,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9965,7 +9982,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9985,7 +10002,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10005,7 +10022,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10025,7 +10042,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10046,7 +10063,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10067,7 +10084,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10088,7 +10105,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10109,7 +10126,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10130,7 +10147,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10151,7 +10168,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10172,7 +10189,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10193,7 +10210,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10214,7 +10231,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10235,7 +10252,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10256,7 +10273,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10277,7 +10294,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10298,7 +10315,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10319,7 +10336,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10340,7 +10357,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10361,7 +10378,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10382,7 +10399,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10403,7 +10420,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10424,7 +10441,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10445,7 +10462,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10454,7 +10471,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10463,7 +10480,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10472,7 +10489,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10481,7 +10498,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10490,7 +10507,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10499,7 +10516,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10508,7 +10525,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10517,7 +10534,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10526,7 +10543,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10535,7 +10552,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10544,7 +10561,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10553,7 +10570,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10562,7 +10579,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10571,7 +10588,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10580,7 +10597,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10589,7 +10606,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10598,7 +10615,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10607,7 +10624,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10616,7 +10633,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10625,7 +10642,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10634,7 +10651,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10643,7 +10660,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10652,7 +10669,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10661,7 +10678,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10670,7 +10687,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10679,7 +10696,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10688,7 +10705,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10697,7 +10714,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10706,7 +10723,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/NATANAUAN, GILBERTO.xlsx
+++ b/REGULAR/NATANAUAN, GILBERTO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>PERIOD</t>
   </si>
@@ -374,6 +374,9 @@
   <si>
     <t>6/22-26/2023</t>
   </si>
+  <si>
+    <t>6/18-20/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -616,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,6 +802,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,9 +1418,9 @@
   <dimension ref="A2:K418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3885" topLeftCell="A341" activePane="bottomLeft"/>
-      <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="K345" sqref="K345"/>
+      <pane ySplit="3885" topLeftCell="A332" activePane="bottomLeft"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="H346" sqref="H346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1583,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>274.55399999999997</v>
+        <v>275.80399999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1584,7 +1593,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>366.45799999999997</v>
+        <v>364.70799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8383,19 +8392,21 @@
       <c r="B344" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C344" s="13"/>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D344" s="39">
         <v>5</v>
       </c>
       <c r="E344" s="9"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H344" s="39"/>
-      <c r="I344" s="9"/>
-      <c r="J344" s="11" t="s">
+      <c r="G344" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H344" s="63"/>
+      <c r="I344" s="64"/>
+      <c r="J344" s="63" t="s">
         <v>105</v>
       </c>
       <c r="K344" s="20" t="s">
@@ -8406,7 +8417,9 @@
       <c r="A345" s="40">
         <v>45108</v>
       </c>
-      <c r="B345" s="20"/>
+      <c r="B345" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C345" s="13"/>
       <c r="D345" s="39"/>
       <c r="E345" s="9"/>
@@ -8415,10 +8428,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H345" s="39"/>
+      <c r="H345" s="39">
+        <v>3</v>
+      </c>
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
-      <c r="K345" s="20"/>
+      <c r="K345" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
@@ -9653,7 +9670,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9719,18 +9736,12 @@
       <c r="B3" s="11">
         <v>50.957999999999998</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11">
-        <v>2</v>
-      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.629</v>
+        <v>0</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
